--- a/config_5.18/activity_052_qfhl_config.xlsx
+++ b/config_5.18/activity_052_qfhl_config.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Award1" sheetId="1" r:id="rId1"/>
     <sheet name="Task" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Box_exchange" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>task_id</t>
+  </si>
+  <si>
+    <t>box_exchange_id</t>
   </si>
 </sst>
 </file>
@@ -128,10 +131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -148,60 +151,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,39 +167,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,24 +182,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,181 +310,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,6 +495,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -513,8 +560,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,65 +595,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -603,7 +606,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,133 +615,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1412,8 +1415,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1460,14 +1463,47 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/config_5.18/activity_052_qfhl_config.xlsx
+++ b/config_5.18/activity_052_qfhl_config.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Award1" sheetId="1" r:id="rId1"/>
     <sheet name="Task" sheetId="2" r:id="rId2"/>
     <sheet name="Box_exchange" sheetId="3" r:id="rId3"/>
+    <sheet name="Award_sw" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -124,6 +125,30 @@
   </si>
   <si>
     <t>box_exchange_id</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>tex</t>
+  </si>
+  <si>
+    <t>activity_icon_gift269_sqm</t>
+  </si>
+  <si>
+    <t>金龙鱼大米</t>
+  </si>
+  <si>
+    <t>activity_icon_gift268_sqm</t>
+  </si>
+  <si>
+    <t>索尼耳机</t>
+  </si>
+  <si>
+    <t>activity_icon_gift103_xlx</t>
+  </si>
+  <si>
+    <t>高级旅行箱</t>
   </si>
 </sst>
 </file>
@@ -133,16 +158,22 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -151,11 +182,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,13 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -182,6 +228,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -190,6 +244,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -199,22 +283,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,71 +311,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -310,25 +341,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,151 +503,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +526,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,7 +602,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,8 +610,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,60 +626,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -603,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,16 +646,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,120 +664,123 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -761,7 +795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1161,7 +1195,7 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>12032</v>
       </c>
     </row>
@@ -1178,7 +1212,7 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>12033</v>
       </c>
     </row>
@@ -1195,7 +1229,7 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>12034</v>
       </c>
     </row>
@@ -1212,7 +1246,7 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>12035</v>
       </c>
     </row>
@@ -1229,7 +1263,7 @@
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>12036</v>
       </c>
     </row>
@@ -1237,16 +1271,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>12037</v>
       </c>
     </row>
@@ -1254,16 +1288,16 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>12038</v>
       </c>
     </row>
@@ -1271,16 +1305,16 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>12039</v>
       </c>
     </row>
@@ -1288,16 +1322,16 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>12040</v>
       </c>
     </row>
@@ -1305,16 +1339,16 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>12041</v>
       </c>
     </row>
@@ -1322,16 +1356,16 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>12042</v>
       </c>
     </row>
@@ -1339,16 +1373,16 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>12043</v>
       </c>
     </row>
@@ -1356,16 +1390,16 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>12044</v>
       </c>
     </row>
@@ -1373,16 +1407,16 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>12045</v>
       </c>
     </row>
@@ -1390,16 +1424,16 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E16" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>12046</v>
       </c>
     </row>
@@ -1433,7 +1467,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>1000614</v>
       </c>
     </row>
@@ -1441,7 +1475,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>1000615</v>
       </c>
     </row>
@@ -1449,7 +1483,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>1000616</v>
       </c>
     </row>
@@ -1465,7 +1499,7 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -1508,4 +1542,65 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/config_5.18/activity_052_qfhl_config.xlsx
+++ b/config_5.18/activity_052_qfhl_config.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Award1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Task" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>30000小游戏币</t>
+  </si>
+  <si>
+    <t>task_id</t>
   </si>
 </sst>
 </file>
@@ -125,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -152,6 +155,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -159,6 +184,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -166,16 +238,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,106 +291,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -298,187 +301,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,41 +492,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,6 +519,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -565,30 +592,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -600,7 +603,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,19 +612,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,118 +633,121 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1108,7 +1114,7 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -1152,7 +1158,7 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>12032</v>
       </c>
     </row>
@@ -1169,7 +1175,7 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>12033</v>
       </c>
     </row>
@@ -1186,7 +1192,7 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>12034</v>
       </c>
     </row>
@@ -1203,7 +1209,7 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>12035</v>
       </c>
     </row>
@@ -1220,7 +1226,7 @@
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>12036</v>
       </c>
     </row>
@@ -1228,16 +1234,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>12037</v>
       </c>
     </row>
@@ -1245,16 +1251,16 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>12038</v>
       </c>
     </row>
@@ -1262,16 +1268,16 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>12039</v>
       </c>
     </row>
@@ -1279,16 +1285,16 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>12040</v>
       </c>
     </row>
@@ -1296,16 +1302,16 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>12041</v>
       </c>
     </row>
@@ -1313,16 +1319,16 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>12042</v>
       </c>
     </row>
@@ -1330,16 +1336,16 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>12043</v>
       </c>
     </row>
@@ -1347,16 +1353,16 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>12044</v>
       </c>
     </row>
@@ -1364,16 +1370,16 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>12045</v>
       </c>
     </row>
@@ -1381,16 +1387,16 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E16" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>12046</v>
       </c>
     </row>
@@ -1404,14 +1410,47 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1000615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1000616</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/config_5.18/activity_052_qfhl_config.xlsx
+++ b/config_5.18/activity_052_qfhl_config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -133,22 +133,34 @@
     <t>tex</t>
   </si>
   <si>
+    <t>offset</t>
+  </si>
+  <si>
     <t>activity_icon_gift269_sqm</t>
   </si>
   <si>
     <t>金龙鱼大米</t>
   </si>
   <si>
+    <t>0,20,50,100,200,400</t>
+  </si>
+  <si>
     <t>activity_icon_gift268_sqm</t>
   </si>
   <si>
     <t>索尼耳机</t>
   </si>
   <si>
+    <t>0,100,500,1000,1500,2200</t>
+  </si>
+  <si>
     <t>activity_icon_gift103_xlx</t>
   </si>
   <si>
     <t>高级旅行箱</t>
+  </si>
+  <si>
+    <t>0,100,500,1000,1500,4000</t>
   </si>
 </sst>
 </file>
@@ -156,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -182,23 +194,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +233,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -220,107 +302,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,181 +353,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,16 +541,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -553,16 +580,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -583,30 +630,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -615,17 +638,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -634,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,133 +658,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1547,15 +1559,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1565,38 +1577,50 @@
       <c r="C1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:3">
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:3">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
